--- a/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
+++ b/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -113,37 +113,40 @@
     <t>Sau thủ thuật</t>
   </si>
   <si>
+    <t>&amp;=[DATA1].CHANDOANTRUOCPHAUTHUAT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHANDOANSAUPHAUTHUAT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SERVICEPRICENAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PHUONGPHAPPTTT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAMID</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PHAUTHUATTHUTHUATDATE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].LOAIPTTT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PHAUTHUATVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BACSIGAYME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GHICHU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
     <t>BÁO CÁO THỦ THUẬT CÁC KHOA</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CHANDOANTRUOCPHAUTHUAT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].CHANDOANSAUPHAUTHUAT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].SERVICEPRICENAME</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PHUONGPHAPPTTT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAMID</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PHAUTHUATTHUTHUATDATE</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].LOAIPTTT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PHAUTHUATVIEN</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].BACSIGAYME</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].GHICHU</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,6 +407,27 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -419,29 +443,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,116 +760,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="E2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
     <row r="7" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="24" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="22"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -935,54 +950,45 @@
         <v>17</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="M10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="23" t="s">
+      <c r="M13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
+  <mergeCells count="20">
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="M13:O13"/>
@@ -993,6 +999,16 @@
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E4:J4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
+++ b/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>Họ tên người bệnh</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>BÁO CÁO THỦ THUẬT CÁC KHOA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -407,6 +407,33 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,35 +446,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,256 +759,255 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="6" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="7" spans="1:16" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="22"/>
+    </row>
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="17">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17">
+        <v>8</v>
+      </c>
+      <c r="I8" s="17">
+        <v>9</v>
+      </c>
+      <c r="J8" s="17">
+        <v>10</v>
+      </c>
+      <c r="K8" s="17">
+        <v>11</v>
+      </c>
+      <c r="L8" s="17">
+        <v>12</v>
+      </c>
+      <c r="M8" s="17">
+        <v>13</v>
+      </c>
+      <c r="N8" s="17">
+        <v>14</v>
+      </c>
+      <c r="O8" s="17">
+        <v>15</v>
+      </c>
+      <c r="P8" s="17">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="25" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="7" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="29"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17">
-        <v>2</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4</v>
-      </c>
-      <c r="E9" s="17">
-        <v>5</v>
-      </c>
-      <c r="F9" s="17">
-        <v>6</v>
-      </c>
-      <c r="G9" s="17">
-        <v>7</v>
-      </c>
-      <c r="H9" s="17">
-        <v>8</v>
-      </c>
-      <c r="I9" s="17">
-        <v>9</v>
-      </c>
-      <c r="J9" s="17">
-        <v>10</v>
-      </c>
-      <c r="K9" s="17">
-        <v>11</v>
-      </c>
-      <c r="L9" s="17">
-        <v>12</v>
-      </c>
-      <c r="M9" s="17">
-        <v>13</v>
-      </c>
-      <c r="N9" s="17">
-        <v>14</v>
-      </c>
-      <c r="O9" s="17">
-        <v>15</v>
-      </c>
-      <c r="P9" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
+++ b/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BACSIGAYME</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].GHICHU</t>
   </si>
   <si>
     <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
@@ -407,6 +404,27 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,32 +440,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -738,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,124 +757,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="A2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="6" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -975,19 +972,27 @@
       <c r="O9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="P9" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="23" t="s">
+      <c r="M12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="A6:A7"/>
@@ -998,16 +1003,6 @@
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
+++ b/MedicalLink/Templates/So_PhauThuatThuThuat_CacKhoa.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -77,9 +77,6 @@
     <t>&amp;=[DATA1].COBHYT</t>
   </si>
   <si>
-    <t>Tên thủ thuật</t>
-  </si>
-  <si>
     <t>Phương pháp thủ thuật</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>&amp;=[DATA1].SERVICEPRICENAME</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].PHUONGPHAPPTTT</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAMID</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].PHAUTHUATTHUTHUATDATE</t>
   </si>
   <si>
@@ -144,6 +135,9 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].PTTT_PHUONGPHAPVOCAM</t>
   </si>
 </sst>
 </file>
@@ -354,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,9 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,9 +388,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -733,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,263 +737,202 @@
     <col min="6" max="6" width="5.7109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="21.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="41.140625" style="5" customWidth="1"/>
-    <col min="10" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="5" customWidth="1"/>
-    <col min="14" max="16" width="19.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="21.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="5" customWidth="1"/>
+    <col min="13" max="15" width="19.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="20" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
-    <row r="6" spans="1:16" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="24" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="28" t="s">
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
+      <c r="H7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="27"/>
     </row>
-    <row r="7" spans="1:16" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="15" t="s">
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="29"/>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>4</v>
-      </c>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6</v>
-      </c>
-      <c r="G8" s="17">
-        <v>7</v>
-      </c>
-      <c r="H8" s="17">
-        <v>8</v>
-      </c>
-      <c r="I8" s="17">
-        <v>9</v>
-      </c>
-      <c r="J8" s="17">
-        <v>10</v>
-      </c>
-      <c r="K8" s="17">
-        <v>11</v>
-      </c>
-      <c r="L8" s="17">
-        <v>12</v>
-      </c>
-      <c r="M8" s="17">
-        <v>13</v>
-      </c>
-      <c r="N8" s="17">
-        <v>14</v>
-      </c>
-      <c r="O8" s="17">
-        <v>15</v>
-      </c>
-      <c r="P8" s="17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="N6:N7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="67" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
